--- a/anscombe.xlsx
+++ b/anscombe.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Dropbox\AustralPosgrado\RegAvanzadaVirtual\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Dropbox\ClasesRegAvanz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2485C493-8086-443D-A838-3499C71C2888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52BEDB5A-776F-4DDF-B462-80BF9E2EFD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81733990-48B4-4403-9487-C3E1335BEE85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{871A2402-33F8-4EAD-A2AC-B5C1D113B358}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,30 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
-    <t>x1</t>
+    <t>I</t>
   </si>
   <si>
-    <t>x2</t>
+    <t>II</t>
   </si>
   <si>
-    <t>x3</t>
+    <t>III</t>
   </si>
   <si>
-    <t>x4</t>
+    <t>IV</t>
   </si>
   <si>
-    <t>y1</t>
+    <t>x</t>
   </si>
   <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>y4</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -69,46 +64,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCFCFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,12 +99,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -131,14 +145,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -168,39 +182,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -252,7 +266,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -363,13 +377,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -378,6 +385,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -442,209 +456,383 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106C13F4-4594-4AC2-9CFF-83822893EF0B}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58B5F13-66E0-429D-A0E2-3212F90D2B5B}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.77</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12.74</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.81</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.77</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.81</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.84</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B9" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="G10" s="1">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10.84</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E11" s="1">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9.14</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7.46</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6.95</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8.14</v>
-      </c>
-      <c r="G3" s="3">
-        <v>6.77</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7.58</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8.74</v>
-      </c>
-      <c r="G4" s="2">
-        <v>12.74</v>
-      </c>
-      <c r="H4" s="2">
-        <v>7.71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3">
-        <v>8.81</v>
-      </c>
-      <c r="F5" s="3">
-        <v>8.77</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7.11</v>
-      </c>
-      <c r="H5" s="3">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8.33</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.26</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7.81</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8.4700000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="F7" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>8.84</v>
-      </c>
-      <c r="H7" s="3">
-        <v>7.04</v>
+      <c r="B12" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.74</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.73</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6.89</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>